--- a/artfynd/A 32403-2023.xlsx
+++ b/artfynd/A 32403-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112181853</v>
+        <v>112181898</v>
       </c>
       <c r="B2" t="n">
-        <v>78107</v>
+        <v>78081</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>431106.043739924</v>
+        <v>431104</v>
       </c>
       <c r="R2" t="n">
-        <v>6811801.662563345</v>
+        <v>6811804</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -757,19 +757,9 @@
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-07-13</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -801,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112181898</v>
+        <v>112181853</v>
       </c>
       <c r="B3" t="n">
-        <v>78081</v>
+        <v>78107</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -845,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>431104.1650172551</v>
+        <v>431106</v>
       </c>
       <c r="R3" t="n">
-        <v>6811803.614178943</v>
+        <v>6811802</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,19 +868,9 @@
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-07-13</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -966,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>431104.1934364346</v>
+        <v>431104</v>
       </c>
       <c r="R4" t="n">
-        <v>6811805.049427359</v>
+        <v>6811805</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -999,19 +979,9 @@
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-07-13</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">

--- a/artfynd/A 32403-2023.xlsx
+++ b/artfynd/A 32403-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112181898</v>
+        <v>112181853</v>
       </c>
       <c r="B2" t="n">
-        <v>78081</v>
+        <v>78228</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>431104</v>
+        <v>431106</v>
       </c>
       <c r="R2" t="n">
-        <v>6811804</v>
+        <v>6811802</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112181853</v>
+        <v>112182534</v>
       </c>
       <c r="B3" t="n">
-        <v>78107</v>
+        <v>77388</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>431106</v>
+        <v>431104</v>
       </c>
       <c r="R3" t="n">
-        <v>6811802</v>
+        <v>6811805</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112182534</v>
+        <v>112181898</v>
       </c>
       <c r="B4" t="n">
-        <v>77267</v>
+        <v>78202</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,21 +918,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>229821</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -949,7 +949,7 @@
         <v>431104</v>
       </c>
       <c r="R4" t="n">
-        <v>6811805</v>
+        <v>6811804</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>

--- a/artfynd/A 32403-2023.xlsx
+++ b/artfynd/A 32403-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112181853</v>
+        <v>112182534</v>
       </c>
       <c r="B2" t="n">
-        <v>78228</v>
+        <v>77402</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>431106</v>
+        <v>431104</v>
       </c>
       <c r="R2" t="n">
-        <v>6811802</v>
+        <v>6811805</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112182534</v>
+        <v>112181898</v>
       </c>
       <c r="B3" t="n">
-        <v>77388</v>
+        <v>78216</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>229821</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -838,7 +838,7 @@
         <v>431104</v>
       </c>
       <c r="R3" t="n">
-        <v>6811805</v>
+        <v>6811804</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112181898</v>
+        <v>112181853</v>
       </c>
       <c r="B4" t="n">
-        <v>78202</v>
+        <v>78242</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,21 +918,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>431104</v>
+        <v>431106</v>
       </c>
       <c r="R4" t="n">
-        <v>6811804</v>
+        <v>6811802</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>

--- a/artfynd/A 32403-2023.xlsx
+++ b/artfynd/A 32403-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112182534</v>
+        <v>112181853</v>
       </c>
       <c r="B2" t="n">
-        <v>77402</v>
+        <v>78242</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>431104</v>
+        <v>431106</v>
       </c>
       <c r="R2" t="n">
-        <v>6811805</v>
+        <v>6811802</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112181898</v>
+        <v>112182534</v>
       </c>
       <c r="B3" t="n">
-        <v>78216</v>
+        <v>77402</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>229821</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -838,7 +838,7 @@
         <v>431104</v>
       </c>
       <c r="R3" t="n">
-        <v>6811804</v>
+        <v>6811805</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112181853</v>
+        <v>112181898</v>
       </c>
       <c r="B4" t="n">
-        <v>78242</v>
+        <v>78216</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,21 +918,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>431106</v>
+        <v>431104</v>
       </c>
       <c r="R4" t="n">
-        <v>6811802</v>
+        <v>6811804</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
